--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyGLAccountProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyGLAccountProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303E18FB-E312-407E-8B28-53985991194D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8369A852-D351-4B41-94EE-909250CDBC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,7 +712,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
